--- a/Project-management/Zeiterfassung.xlsx
+++ b/Project-management/Zeiterfassung.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://htldornbirn-my.sharepoint.com/personal/linus_woerndle_student_htldornbirn_at/Documents/4. Jahr/Softwareentwicklung und Projektmanagement/5. AA - Projekt - HomeSphere/HomeSphere/Projekt Management/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://htldornbirn-my.sharepoint.com/personal/linus_woerndle_student_htldornbirn_at/Documents/4. Jahr/Softwareentwicklung und Projektmanagement/5. AA - Projekt - HomeSphere/HomeSphere/Project-management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="503" documentId="13_ncr:1_{B0761948-1EC6-46FA-9F5A-F6DD0D3AA1F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D14DCC68-EA2E-40FC-9831-7097DC9CAE41}"/>
+  <xr:revisionPtr revIDLastSave="561" documentId="13_ncr:1_{B0761948-1EC6-46FA-9F5A-F6DD0D3AA1F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4CF2BC11-C6ED-45F9-B16C-BB091176DA65}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{8CF7A9F1-50C4-41E0-98B0-08DA5C94E484}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="165">
   <si>
     <t>Datum</t>
   </si>
@@ -478,6 +478,66 @@
   </si>
   <si>
     <t>PM</t>
+  </si>
+  <si>
+    <t>Design weitergemacht</t>
+  </si>
+  <si>
+    <t>Framework Recherche</t>
+  </si>
+  <si>
+    <t>Aufsetzung Projekt</t>
+  </si>
+  <si>
+    <t>Design weitermachen</t>
+  </si>
+  <si>
+    <t>Programmierung - ToDo</t>
+  </si>
+  <si>
+    <t>Programmierung - Backend</t>
+  </si>
+  <si>
+    <t>Programmierung - Middleware</t>
+  </si>
+  <si>
+    <t>Überarbeitung .env Datei</t>
+  </si>
+  <si>
+    <t>Logo erstellt</t>
+  </si>
+  <si>
+    <t>PA erstellt</t>
+  </si>
+  <si>
+    <t>Github aufgesetzt mit Wiki und Co. + PM (PSP) erstellt</t>
+  </si>
+  <si>
+    <t>Bis zum heutigen Tag keine Antwort erhalten</t>
+  </si>
+  <si>
+    <t>Erfolg</t>
+  </si>
+  <si>
+    <t>Erfolg, Design wird nun per XD gemacht</t>
+  </si>
+  <si>
+    <t>Vue mit Bootstrap</t>
+  </si>
+  <si>
+    <t>Programmierung und Design - Freundesliste</t>
+  </si>
+  <si>
+    <t>Mockup auf den neuesten Stand</t>
+  </si>
+  <si>
+    <t>Authentifizierung Users</t>
+  </si>
+  <si>
+    <t>ToDo</t>
+  </si>
+  <si>
+    <t>Zwischenpräsentation</t>
   </si>
 </sst>
 </file>
@@ -1803,19 +1863,18 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3BC1067-A544-411D-A19F-B979816E400F}">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.5703125" style="2" customWidth="1"/>
     <col min="2" max="2" width="44.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1"/>
-    <col min="4" max="5" width="5.7109375" customWidth="1"/>
-    <col min="6" max="6" width="5.7109375" style="3" customWidth="1"/>
+    <col min="3" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="3" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="49.7109375" style="2" customWidth="1"/>
     <col min="8" max="8" width="11.42578125" customWidth="1"/>
     <col min="9" max="10" width="15.7109375" customWidth="1"/>
@@ -1888,17 +1947,20 @@
       <c r="C3">
         <v>80</v>
       </c>
+      <c r="G3" s="2" t="s">
+        <v>155</v>
+      </c>
       <c r="K3" s="18" t="str">
         <f>INT(SUBSTITUTE(SUM(C3:C1048576),"min","")/60)&amp;" h "&amp;MOD(SUBSTITUTE(SUM(C3:C1048576),"min",""),60)&amp;" min"</f>
-        <v>5 h 0 min</v>
+        <v>11 h 10 min</v>
       </c>
       <c r="L3" s="149" t="str">
         <f>INT(SUBSTITUTE(SUM(D3:D1048576),"min","")/60)&amp;" h "&amp;MOD(SUBSTITUTE(SUM(D3:D1048576),"min",""),60)&amp;" min"</f>
-        <v>4 h 30 min</v>
+        <v>11 h 10 min</v>
       </c>
       <c r="M3" s="150" t="str">
         <f>INT(SUBSTITUTE(SUM(E3:E1048576),"min","")/60)&amp;" h "&amp;MOD(SUBSTITUTE(SUM(E3:E1048576),"min",""),60)&amp;" min"</f>
-        <v>4 h 40 min</v>
+        <v>11 h 20 min</v>
       </c>
       <c r="N3" s="12" t="str">
         <f>INT(SUBSTITUTE(SUM(F3:F1048576),"min","")/60)&amp;" h "&amp;MOD(SUBSTITUTE(SUM(F3:F1048576),"min",""),60)&amp;" min"</f>
@@ -1917,6 +1979,9 @@
       </c>
       <c r="E4">
         <v>100</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -1933,7 +1998,9 @@
       </c>
       <c r="E5" s="153"/>
       <c r="F5" s="154"/>
-      <c r="G5" s="152"/>
+      <c r="G5" s="152" t="s">
+        <v>153</v>
+      </c>
       <c r="K5" s="19" t="s">
         <v>10</v>
       </c>
@@ -1962,6 +2029,9 @@
       </c>
       <c r="E7">
         <v>20</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1978,6 +2048,9 @@
       <c r="E8">
         <v>30</v>
       </c>
+      <c r="G8" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
@@ -2005,6 +2078,9 @@
       </c>
       <c r="E11">
         <v>20</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2032,6 +2108,9 @@
       <c r="D13">
         <v>70</v>
       </c>
+      <c r="G13" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="I13" s="20">
         <v>45477</v>
       </c>
@@ -2047,14 +2126,145 @@
         <v>60</v>
       </c>
     </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>45615</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C16">
+        <v>100</v>
+      </c>
+      <c r="D16">
+        <v>30</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+    </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G17" s="147"/>
+      <c r="B17" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E17">
+        <v>30</v>
+      </c>
+      <c r="G17" s="147" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
+      <c r="B18" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D18">
+        <v>70</v>
+      </c>
+      <c r="E18">
+        <v>60</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>45625</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C20">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>45629</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D24">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E26">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>45636</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E29">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E30">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D31">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C32">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2066,7 +2276,7 @@
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:F17 C18:E18 C19:F1048576">
+  <conditionalFormatting sqref="C3:F17 C18:E18 C19:F19 C20:D20 F20 C21:F1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
       <formula>""</formula>
     </cfRule>

--- a/Project-management/Zeiterfassung.xlsx
+++ b/Project-management/Zeiterfassung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://htldornbirn-my.sharepoint.com/personal/linus_woerndle_student_htldornbirn_at/Documents/4. Jahr/Softwareentwicklung und Projektmanagement/5. AA - Projekt - HomeSphere/HomeSphere/Project-management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="561" documentId="13_ncr:1_{B0761948-1EC6-46FA-9F5A-F6DD0D3AA1F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4CF2BC11-C6ED-45F9-B16C-BB091176DA65}"/>
+  <xr:revisionPtr revIDLastSave="565" documentId="13_ncr:1_{B0761948-1EC6-46FA-9F5A-F6DD0D3AA1F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC39AA2E-FBA6-4606-8676-0E03F1A2BEEC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{8CF7A9F1-50C4-41E0-98B0-08DA5C94E484}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{8CF7A9F1-50C4-41E0-98B0-08DA5C94E484}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="4" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="166">
   <si>
     <t>Datum</t>
   </si>
@@ -538,6 +538,9 @@
   </si>
   <si>
     <t>Zwischenpräsentation</t>
+  </si>
+  <si>
+    <t>Einkaufsliste</t>
   </si>
 </sst>
 </file>
@@ -1414,10 +1417,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
@@ -1863,10 +1862,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3BC1067-A544-411D-A19F-B979816E400F}">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2264,6 +2263,14 @@
       </c>
       <c r="C32">
         <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>45643</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -2291,8 +2298,8 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:C11"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Project-management/Zeiterfassung.xlsx
+++ b/Project-management/Zeiterfassung.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://htldornbirn-my.sharepoint.com/personal/linus_woerndle_student_htldornbirn_at/Documents/4. Jahr/Softwareentwicklung und Projektmanagement/5. AA - Projekt - HomeSphere/HomeSphere/Project-management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="565" documentId="13_ncr:1_{B0761948-1EC6-46FA-9F5A-F6DD0D3AA1F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC39AA2E-FBA6-4606-8676-0E03F1A2BEEC}"/>
+  <xr:revisionPtr revIDLastSave="578" documentId="13_ncr:1_{B0761948-1EC6-46FA-9F5A-F6DD0D3AA1F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1CBCE4D-B049-4B1F-8777-1EBA32AA4278}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{8CF7A9F1-50C4-41E0-98B0-08DA5C94E484}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{8CF7A9F1-50C4-41E0-98B0-08DA5C94E484}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="4" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="169">
   <si>
     <t>Datum</t>
   </si>
@@ -541,6 +541,15 @@
   </si>
   <si>
     <t>Einkaufsliste</t>
+  </si>
+  <si>
+    <t>Backend</t>
+  </si>
+  <si>
+    <t>Dokumentation</t>
+  </si>
+  <si>
+    <t>Einkaufsliste und ToDo</t>
   </si>
 </sst>
 </file>
@@ -1862,10 +1871,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3BC1067-A544-411D-A19F-B979816E400F}">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1951,15 +1960,15 @@
       </c>
       <c r="K3" s="18" t="str">
         <f>INT(SUBSTITUTE(SUM(C3:C1048576),"min","")/60)&amp;" h "&amp;MOD(SUBSTITUTE(SUM(C3:C1048576),"min",""),60)&amp;" min"</f>
-        <v>11 h 10 min</v>
+        <v>14 h 30 min</v>
       </c>
       <c r="L3" s="149" t="str">
         <f>INT(SUBSTITUTE(SUM(D3:D1048576),"min","")/60)&amp;" h "&amp;MOD(SUBSTITUTE(SUM(D3:D1048576),"min",""),60)&amp;" min"</f>
-        <v>11 h 10 min</v>
+        <v>14 h 30 min</v>
       </c>
       <c r="M3" s="150" t="str">
         <f>INT(SUBSTITUTE(SUM(E3:E1048576),"min","")/60)&amp;" h "&amp;MOD(SUBSTITUTE(SUM(E3:E1048576),"min",""),60)&amp;" min"</f>
-        <v>11 h 20 min</v>
+        <v>14 h 30 min</v>
       </c>
       <c r="N3" s="12" t="str">
         <f>INT(SUBSTITUTE(SUM(F3:F1048576),"min","")/60)&amp;" h "&amp;MOD(SUBSTITUTE(SUM(F3:F1048576),"min",""),60)&amp;" min"</f>
@@ -2147,7 +2156,7 @@
         <v>146</v>
       </c>
       <c r="E17">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G17" s="147" t="s">
         <v>159</v>
@@ -2265,12 +2274,58 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>45643</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>165</v>
+      </c>
+      <c r="E34">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C36">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>45305</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E38">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D39">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C40">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2298,7 +2353,7 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
